--- a/output/user_results.xlsx
+++ b/output/user_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/user_results.xlsx
+++ b/output/user_results.xlsx
@@ -1,38 +1,1419 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topaz\OneDrive\SQ 2018\POL 193\Code\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2B862B0654C054A0BF9A5F5920C169C3580F6A84" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{5A245CDA-BEA7-4AF4-9B45-D5F1F4317993}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11892" windowHeight="6216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="socialism" sheetId="2" r:id="rId2"/>
+    <sheet name="Libertarian" sheetId="3" r:id="rId3"/>
+    <sheet name="The_Donald" sheetId="4" r:id="rId4"/>
+    <sheet name="politics" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="452">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>Subreddit</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Average Polarity</t>
+  </si>
+  <si>
+    <t>Average Subjectivity</t>
+  </si>
+  <si>
+    <t>Arakhion</t>
+  </si>
+  <si>
+    <t>gonzalodyke</t>
+  </si>
+  <si>
+    <t>WhipItGouda</t>
+  </si>
+  <si>
+    <t>zombiesingularity</t>
+  </si>
+  <si>
+    <t>LeMortSaisitLeVif</t>
+  </si>
+  <si>
+    <t>5447</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>3065</t>
+  </si>
+  <si>
+    <t>63668</t>
+  </si>
+  <si>
+    <t>4448</t>
+  </si>
+  <si>
+    <t>r/socialism</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-0.0216001157407</t>
+  </si>
+  <si>
+    <t>0.0255793650794</t>
+  </si>
+  <si>
+    <t>0.185347222222</t>
+  </si>
+  <si>
+    <t>0.0777918446187</t>
+  </si>
+  <si>
+    <t>0.166273576631</t>
+  </si>
+  <si>
+    <t>0.567303240741</t>
+  </si>
+  <si>
+    <t>0.392921626984</t>
+  </si>
+  <si>
+    <t>0.275416666667</t>
+  </si>
+  <si>
+    <t>0.361493981093</t>
+  </si>
+  <si>
+    <t>0.444719802555</t>
+  </si>
+  <si>
+    <t>JerkwaterJeff666</t>
+  </si>
+  <si>
+    <t>reaaaaally</t>
+  </si>
+  <si>
+    <t>doyouwantapizzaroll</t>
+  </si>
+  <si>
+    <t>rubygeek</t>
+  </si>
+  <si>
+    <t>LRonPaul2012</t>
+  </si>
+  <si>
+    <t>16707</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>37770</t>
+  </si>
+  <si>
+    <t>83545</t>
+  </si>
+  <si>
+    <t>49140</t>
+  </si>
+  <si>
+    <t>r/Libertarian</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-0.00797505668934</t>
+  </si>
+  <si>
+    <t>0.168963105077</t>
+  </si>
+  <si>
+    <t>0.169097222222</t>
+  </si>
+  <si>
+    <t>0.0963284148158</t>
+  </si>
+  <si>
+    <t>-0.0256322493644</t>
+  </si>
+  <si>
+    <t>0.472556689342</t>
+  </si>
+  <si>
+    <t>0.474451656016</t>
+  </si>
+  <si>
+    <t>0.415277777778</t>
+  </si>
+  <si>
+    <t>0.574645882829</t>
+  </si>
+  <si>
+    <t>0.39608823782</t>
+  </si>
+  <si>
+    <t>Mothra67</t>
+  </si>
+  <si>
+    <t>johnsmithshitpost</t>
+  </si>
+  <si>
+    <t>blue_suede_shoes_</t>
+  </si>
+  <si>
+    <t>yourturtlesaremine</t>
+  </si>
+  <si>
+    <t>CNNWillBlackmailYou</t>
+  </si>
+  <si>
+    <t>51179</t>
+  </si>
+  <si>
+    <t>88963</t>
+  </si>
+  <si>
+    <t>231220</t>
+  </si>
+  <si>
+    <t>100903</t>
+  </si>
+  <si>
+    <t>7678</t>
+  </si>
+  <si>
+    <t>r/The_Donald</t>
+  </si>
+  <si>
+    <t>-0.00972222222222</t>
+  </si>
+  <si>
+    <t>0.0296875</t>
+  </si>
+  <si>
+    <t>0.155218253968</t>
+  </si>
+  <si>
+    <t>0.153530092593</t>
+  </si>
+  <si>
+    <t>0.190698412698</t>
+  </si>
+  <si>
+    <t>0.261111111111</t>
+  </si>
+  <si>
+    <t>0.43859375</t>
+  </si>
+  <si>
+    <t>0.301726190476</t>
+  </si>
+  <si>
+    <t>0.532483796296</t>
+  </si>
+  <si>
+    <t>0.555615079365</t>
+  </si>
+  <si>
+    <t>AutoModerator</t>
+  </si>
+  <si>
+    <t>j_la</t>
+  </si>
+  <si>
+    <t>shittdsays</t>
+  </si>
+  <si>
+    <t>Fynn_the_Finger</t>
+  </si>
+  <si>
+    <t>jerryyork</t>
+  </si>
+  <si>
+    <t>445850</t>
+  </si>
+  <si>
+    <t>133329</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>300313</t>
+  </si>
+  <si>
+    <t>132206</t>
+  </si>
+  <si>
+    <t>r/politics</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-0.0291666666667</t>
+  </si>
+  <si>
+    <t>0.0325375566893</t>
+  </si>
+  <si>
+    <t>0.0533988095238</t>
+  </si>
+  <si>
+    <t>-0.0411184597296</t>
+  </si>
+  <si>
+    <t>-0.0841666666667</t>
+  </si>
+  <si>
+    <t>0.529166666667</t>
+  </si>
+  <si>
+    <t>0.462853599773</t>
+  </si>
+  <si>
+    <t>0.370827380952</t>
+  </si>
+  <si>
+    <t>0.581077517427</t>
+  </si>
+  <si>
+    <t>0.4325</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Subjectivity</t>
+  </si>
+  <si>
+    <t>Any age is. Life imprisonment with no chance at rehabilitation is inhumane and disgusting.</t>
+  </si>
+  <si>
+    <t>True, but supporting it by buying things that claim to be socialist is a little ironic.</t>
+  </si>
+  <si>
+    <t>My parents are social democrats, so I'd always been on the left at least slightly. When I started researching politics and current affairs I was pretty discouraged by the hypocrisy of my country (the Prime Minister being a "feminist" who endorses selling arms to Saudi Arabia, for instance), and started looking for alternate ways to solve the problems. As I read more, I became convinced capitalism was the root cause of all the war, poverty, and destruction of the planet that I found so horrific, so I became a socialist.</t>
+  </si>
+  <si>
+    <t>ah fair enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buying socialist merchandise is kind of hypocritical, no? </t>
+  </si>
+  <si>
+    <t>That's one socialist state out of several that have existed and continue to exist. Furthermore, socialism is a very diverse ideology and not all of its permutations have been implemented. Without even getting into whether or not socialism is viable, dismissing the whole ideology on the grounds that it has so far produced suboptimal results in one specific country is absurd. It's akin to dismissing all forms of democracy because of the failures of revolutionary France.</t>
+  </si>
+  <si>
+    <t>ah. I ask because it's increasingly difficult to find actually unbiased news sources</t>
+  </si>
+  <si>
+    <t>Can you recommend any?</t>
+  </si>
+  <si>
+    <t>-0.95</t>
+  </si>
+  <si>
+    <t>0.153125</t>
+  </si>
+  <si>
+    <t>-0.0759259259259</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.392592592593</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.470833333333</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"It relies entirely on reader donations (since 2014)... is supported by Oliver Stone and Noam Chomsky..." just screams not credible to me! \n\nAlso wikipedia isn't a source. If you're ignorant about something investigate it don't speak beforehand. </t>
+  </si>
+  <si>
+    <t>* government employment private employment has no protections from discrimination\n\nHealthcare covers as many reassignment surgery and HRT as state decides are necessary. And the conservative environment in terms of who runs it means you get [investigated for asking... and many have to get it privately because state doesnt approve](https://pulitzercenter.org/reporting/transgender-cubans-struggle-equal-rights-macho-cuba). Do you know about the pro-discriminatory segments of the labor law of 2013? So pro-discriminatory that Mariela Castro, in a stunning break with Party discipline cast the [sole dissenting vote](https://www.theguardian.com/world/2014/aug/19/mariela-castro-raul-no-vote-discrimination) on the bill (btw shows you that in 2013 none of the Party outside her gave a single shit about LGBT). No you probably don't.\n\nSo no its not as easy or nice to be TLBG in Cuba as you are portraying it. Please stop pinkwashing revisionism. Cuban state is enemy of TLBG people, and it still incarcerates people for daring to transition illegally, organize gay social spaces, and use hormone replacement drugs.</t>
+  </si>
+  <si>
+    <t>You dont think it has more to do with toleration by the party of heterosexist opinions inherited from reactionaries and the role of religion inside and outside of the party? It wasnt like it was the TLBG community that decided to not struggle for marriage, because they were focused on remaining outside of prison or camps, and trying to maintain basic social spaces like clubs and bars.\n\nMarriage brings important rights (hospital visitation, housing preferences) and respectability socially. Reactionaries in the party and outside want to restrict that from TLBG</t>
+  </si>
+  <si>
+    <t>This is true, we need strict supervision over the rich and their means of production, expertise and organization. Thats why we need dictator ship of proletariat over bourgeoisie.</t>
+  </si>
+  <si>
+    <t>(Not posted for agreement, posted for discussion. Personally Wolffs selective knowledge of Marxism are just covers for revisionism that denies need for dictatorship of the proletariat. You cannot view Marx as merely an economist, his political economy is also related to his politicsspecifically his strategy and tactics for proletariat revolution)</t>
+  </si>
+  <si>
+    <t>Venezuela is only an example of leftist parties in leadership of a capitalist mode of production. Make of it what you will, but it is not a socialist economy by any stretch. Compare with [socialist China]( https://www.prisoncensorship.info/archive/books/China/ChineseRoadtoSocialism_WheelwrightMacFarlane.pdf).</t>
+  </si>
+  <si>
+    <t>[Venezuela Analysis](https://venezuelanalysis.com/)</t>
+  </si>
+  <si>
+    <t>[National Liberation and Culture](http://www.historyisaweapon.com/defcon1/cabralnlac.html)\n\n</t>
+  </si>
+  <si>
+    <t>Criticism of Abbas from actual resistance in Palestine [1](http://pflp.ps/english/2016/04/20/pflp-abbas-statements-to-german-der-spiegel-are-an-attack-on-the-struggles-of-the-palestinian-people/) [2](http://pflp.ps/english/2016/04/20/pflp-abbas-statements-to-german-der-spiegel-are-an-attack-on-the-struggles-of-the-palestinian-people/) [3](http://pflp.ps/english/2016/04/03/pflp-demands-plo-central-council-hold-abbas-accountable-for-actions-undermining-palestinian-struggle/) [4](http://pflp.ps/english/2016/04/03/jaber-abbass-statements-on-security-coordination-intifada-are-disgraceful-shameful/) [5](http://pflp.ps/english/2015/10/16/barakat-abbass-speech-full-of-contradictions-and-obsolete-policies/)\n\n""Palestinian Authority"" is nothing but instrument of occupation!</t>
+  </si>
+  <si>
+    <t>I am Palestinian and I quoted Palestinian resistance in my post. Abbas represents the occupation. He isn't a "representative of Palestine" and hasn't been since he sold the nation out in Oslo.\n\nFuck this cover for collaborators. Fuck this paternalism and this attitude that you know better than the Palestinian resistance who our friends and enemies are.</t>
+  </si>
+  <si>
+    <t>-0.125</t>
+  </si>
+  <si>
+    <t>0.14746031746</t>
+  </si>
+  <si>
+    <t>0.120833333333</t>
+  </si>
+  <si>
+    <t>0.3625</t>
+  </si>
+  <si>
+    <t>-0.025</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.6625</t>
+  </si>
+  <si>
+    <t>0.536507936508</t>
+  </si>
+  <si>
+    <t>0.238541666667</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.566666666667</t>
+  </si>
+  <si>
+    <t>The capitalist in its many forms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are good things, but that doesnt make them socialist. Still had wage labor, capital, employment, commodity production, etc. Thus, not socialist. </t>
+  </si>
+  <si>
+    <t>At the moment, no. Most of my news comes in through aggregation and I don't really read it much. Independent investigative sources like ProPublica tend to be something I look out for, though.</t>
+  </si>
+  <si>
+    <t>Meh, it's a flopping social democracy. If you want to know what's going on, I'd recommend finding some solid independent news sources and read what you can.</t>
+  </si>
+  <si>
+    <t>The political left doesn't really matter that much. The material conditions and the already-existing antagonisms in capitalism will be what brings the fall of capitalism, not some 'big ideas'.</t>
+  </si>
+  <si>
+    <t>oh boy, another fight between bourgeois factions! Wonder who wins? Clearly not the working class.</t>
+  </si>
+  <si>
+    <t>**No.**</t>
+  </si>
+  <si>
+    <t>Let's not do Great Man Theory here, just bad stuff there.\n\nAlso, the political left doesn't really matter that much. The material conditions and the already-existing antagonisms in capitalism will be what brings the fall of capitalism, not some dude yelling at right-wingers at a podium.</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>-0.0166666666667</t>
+  </si>
+  <si>
+    <t>0.0111111111111</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.0833333333333</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.0972222222222</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.291666666667</t>
+  </si>
+  <si>
+    <t>0.319444444444</t>
+  </si>
+  <si>
+    <t>Oh you're a leftcom. No wonder I felt like I was arguing with a baby.</t>
+  </si>
+  <si>
+    <t>&gt; (1) Nope, you ought to reread it yourself.\n\nOh dear: https://i.imgur.com/mgm7FpG.png\n\n&gt;(2) Yes, having a market is Capitalist.\n\nWait, so you're saying *yes* the USSR would be Capitalist if all of its ownership was public except for a single bananna stand? Lol, that's truly infantile.</t>
+  </si>
+  <si>
+    <t>&gt;  Your page does not show class composition.\n\nYes it does, look at the page harder. If you cannot find it, I'll take a screenshot and draw you an arrow.\n\n&gt;Here's an easy question for you, are there private companies in China, does the Market exist there? Yes? Then it is a Capitalist country\n\nSo if one bananna stand existed in the USSR, they'd be a Capitalist country? No. It's about the commanding heights of the economy and which social relations predominate, and whether planning versus markets predominate. In China, public ownership and planning continue to predominate.</t>
+  </si>
+  <si>
+    <t>The New York Times article goes out of its way to hit the brakes with this quote "First, lets be clear: Marx arrives at no magic formula for exiting the enormous social and economic contradictions that global capitalism entails". The NYT editors also hand picked dozens of comments in the comment section talking about how Communism "killed millions", etc. And if you were to do a study on how many NYT articles speak positively about Marx, they would be few and far between.\n\nIf the NYT only ever posted pro-Marxism articles, 100% of the time, then you'd have a point in making the comparison to Chinese media. But that's not the case.\n</t>
+  </si>
+  <si>
+    <t>&gt; (1) That it is a Capitalist nation, which still feels the need to nod towards it Marxist Leninist roots to legitimate itself (for how it plausibly lay any claim to being the inheritors of the Revolution without it). Hence the need for adverts.\n\nThe existence of advertisements means absolutely nothing whatsoever. That is not a good argument. Furthermore, I've pointed out to you several times that this goes way beyond mere superficial rhetoric and iconography. It's clearly more than just a way to legitimize their power, as they go *in-depth* on Marxist theory, on mainstream tv, in schools, etc. \n\n&gt;There is no data to suggest your bold claims are true\n\nhttp://www.chinatoday.com/org/cpc/\n\n&gt;Inequality is getting greater and greater. The land and rivers more polluted.\n\nInequality [has been decreasing](https://www.theatlas.com/charts/ByA7Qcpox) in China in recent years. Environmental rules are getting very tough as well.</t>
+  </si>
+  <si>
+    <t>&gt; China, Vietnam, Laos, etc\n\nSocialist states\n\n&gt;Who the hell cares?\n\nBecause a Capitalist media would not do such a thing, duh. \n\n&gt;So they've nationalized some stuff and have a single party state? Whoooo impressive.\n\n"Some Stuff" being the commanding heights of the economy, and a "single party state" being a worker's vanguard party who's members are majority workers and farmers.\n\n&gt;Is the the same state that arrests people for reading Marx? Also the fact that there are rich people in society that can be arrested shows are capitalist and structured around the class system China is.\n\nOh boy. This source has already been exposed as ultra-left regime change nonsense. When you trace the source of the claim back to the original site, it becomes clear it's not a reliable source. They cite VOA and RFA (Voice of America &amp; Radio Free Asia, both CIA propaganda outlets), etc.\n\n&gt;You've said nothing here that proves that China is in any way socialist. You've only proven how easily fooled you are by red flags and lip service to Marxism.\n\nSocialism is when the working class controls the state, and the economy, and the media, and the banks, and the military. All of that is the case in China.</t>
+  </si>
+  <si>
+    <t>&gt;What you neglect is that what is presented is an official version of Marxism, which may, or may not, actually coincide with either (1) the reality on the ground or (2) actual Marxism as Marx wrote it.\n\nThen check for yourself, I linked you to a video from China on CCTV, it's a 5 part series called "Marx Got it Right".\n\n&gt;as all good students of Marx know, all this super structural stuff is merely an epiphenomena of the economic base, and ultimately should be of secondary importance to Class Analysis. \n\nUh, if the superstructure produces pro-Marxist content exclusively that should tell you something about the base.\n\n&gt;Now, if we look at the Party, what is its current composition. Beside having, for its members, some of the richest people on the Earth, it mostly can count on the bourgeois and burgeoning middle class as loyal Party members, rather than, say, migrant peasants or factory workers or the like, the modern Chinese Proletariat.\n\nThe majority of CPC members are workers and farmers, in fact.\n\n&gt;In the countryside, farmers are devastated\n\nPoverty is at an all time low and is only getting lower. The CPC has some of its greatest support from the rural areas, so that goes entirely against your ridiculous claims.\n</t>
+  </si>
+  <si>
+    <t>0.0821428571429</t>
+  </si>
+  <si>
+    <t>0.0733333333333</t>
+  </si>
+  <si>
+    <t>0.059797979798</t>
+  </si>
+  <si>
+    <t>0.155982905983</t>
+  </si>
+  <si>
+    <t>0.137675070028</t>
+  </si>
+  <si>
+    <t>0.0356107660455</t>
+  </si>
+  <si>
+    <t>0.332738095238</t>
+  </si>
+  <si>
+    <t>0.268333333333</t>
+  </si>
+  <si>
+    <t>0.432222222222</t>
+  </si>
+  <si>
+    <t>0.54358974359</t>
+  </si>
+  <si>
+    <t>0.433543417367</t>
+  </si>
+  <si>
+    <t>0.520031055901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International, proletarian anti-war efforts \n\nSupporting specific capitalist nation states because they're "anti-imperialists"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a pretty much nebulous, near-meaningless word to describe the period starting in the late 70's to today of market liberalism. It's a worthless liberal buzzword that a lot of socialists have picked up on because idk\n\n[Here's](https://www.marxisthumanistinitiative.org/economic-crisis/appearance-and-essence-neoliberalism-financialization-and-the-underlying-crisis-of-capitalist-production.html) a great essay from Andrew Kliman on why it's a silly word from a Marxist perspective </t>
+  </si>
+  <si>
+    <t>&gt;This "alienation" (to use a term which will be comprehensible to the philosophers) can, of course, only be abolished given two practical premises. For it to become an "intolerable" power, i.e. a power against which men make a revolution, it must necessarily have rendered the great mass of humanity"propertyless", and produced, at the same time, the contradiction of an existing world of wealth and culture, both of which conditions presuppose a great increase in productive power, a high degree of its development. And, on the other hand, this development of productive forces (which itself implies the actual empirical existence of men in their world-historical, instead of local, being) is an absolutely necessary practical premise because without it want is merely made general, and with destitution the struggle for necessities and all the old filthy business would necessarily be reproduced; and furthermore, because only with this universal development of productive forces is a universal intercourse between men established, which produces in all nations simultaneously the phenomenon of the "propertyless" mass (universal competition), makes each nation dependent on the revolutions of the others, and finally has put world-historical, empirically universal individuals in place of local ones. Without this, (1) communism could only exist as a local event; (2) the forces of intercourse themselves could not have developed as universal, hence intolerable powers: they would have remained home-bred conditions surrounded by superstition; and (3) each extension of intercourse would abolish local communism. Empirically, **communism is only possible as the act of the dominant peoples "all at once" and simultaneously, which presupposes the universal development of productive forces and the world intercourse bound up with communism**. Moreover, the mass of propertyless workers -- the utterly precarious position of labour -- power on a mass scale cut off from capital or from even a limited satisfaction and, therefore, no longer merely temporarily deprived of work itself as a secure source of life -- presupposes the world market through competition. The proletariat can thus only exist world-historically, just as communism, its activity, can only have a "world-historical" existence. World-historical existence of individuals means existence of individuals which is directly linked up with world history.\n\n* Karl Marx/Friedrich Engels, The German Ideology, 1845</t>
+  </si>
+  <si>
+    <t>No, don't apologize! It's fine!!! I was just saying they'll probably be able to help you out more</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.0271602787456</t>
+  </si>
+  <si>
+    <t>0.604600694444</t>
+  </si>
+  <si>
+    <t>0.632142857143</t>
+  </si>
+  <si>
+    <t>0.480069686411</t>
+  </si>
+  <si>
+    <t>0.541666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the supreme court nullified the right to bear arms, that would be a gross violation of the second amendment and the Constitution. \n\nI never stated there weren't exceptions to the rule there should be for violent criminals and children still enjoy the second amendment with adult supervision and without having to carry a gun. It should be unrestricted for law abiding citizens 18 and up. Also, i never objected to background checks. I said they weren't properly enforced. That's  a governmental problem. \n\nGuns are not why we have mass shootings. It's the mental health crisis that is going unaddressed that is the problem. Quit coming after law-abiding gun owners and their rights and get the mentally ill the help they need by overhauling our healthcare system. We should be protecting our Consitutional rights and do more to make them more encompassing rather than restricting them. \n\nWe blame the drivers for drunk driving deaths, not the cars. Lets blame the shooters for these deaths instead of the guns and the law abiding people who own them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The well regulated milita clause has nullified by the Supreme Court of the United States. It does not apply. Your other points are moot because you lack common sense, of course I don't want guns in the hands of violent felons (who lose rights when they go to prison and beyond) or young children, because that would be irresponsible.\n\nThe second amendment is infringed upon by things like the banning of certain weapons, wait periods, magazine caps, the forcing of "featureless" rifles, and the prohibition of online ammo purchases. All things we have here in California. \n\nIt is imperative that the second amendment be upheld, respected, and that rights be restored to gun owners where necessary. It's imperative because if we let the government take one freedom, they'll take more. We also need the second to protect our families,  and our country (both from its own government and foreign invaders) effectively. \n\nI hate this mass shooting dilemma as muchbas the next person. But taking away the rights of law abiding citizens is not how you solve it. You solve it by solving the mental health crisis in America. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a felon commits a crime he forefits his rights. I've seen five year old children shoot ARs before, with close adult supervision, should they be able to carry them? No, that's just common sense. That's not infringement. DC vs. Heller does not nullify the entire amendment, now you're just being idiotic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC vs. Heller nullfies the clause regarding well-regulated militias, besides those in modern times who have formed militias have been branded as nutjobs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is how it works when it comes to the second amendment. The second amendment is already being infringed by the government with the end goal of it being banned outright because the government fears an armed populace. Cars and their safety regulations are completely different. Apples to Oranges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In that sense it's a false equivalency because we have already seen, as I stated in my earlier comments, that the powers that be will not stop chipping away at the second amendment until it is all gone. That is why we have to take a stand now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car driving is a privilege, owning a gun is a right. It should not be infringed upon. </t>
+  </si>
+  <si>
+    <t>My rights are being taken away because of the actions of a few insane people. Again, we dont take everyones cars because of drunk driving. why are we now blaming the tool rather than the person?</t>
+  </si>
+  <si>
+    <t>Fix the god awful mental healthcare we have in this country and make sure laws already in place are enforced properly.</t>
+  </si>
+  <si>
+    <t>You're assuming every soldier has an undying loyalty to the government with no limits. That isnt true.</t>
+  </si>
+  <si>
+    <t>0.034693877551</t>
+  </si>
+  <si>
+    <t>-0.0557142857143</t>
+  </si>
+  <si>
+    <t>-0.0444444444444</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>-0.133333333333</t>
+  </si>
+  <si>
+    <t>0.285714285714</t>
+  </si>
+  <si>
+    <t>-0.566666666667</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.473979591837</t>
+  </si>
+  <si>
+    <t>0.438095238095</t>
+  </si>
+  <si>
+    <t>0.513888888889</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.366666666667</t>
+  </si>
+  <si>
+    <t>0.535714285714</t>
+  </si>
+  <si>
+    <t>0.547222222222</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>Glad to have you as part of the conversation. This is the type of libertarianism I can relate to and seems much more reasonable than the 'taxation is theft' crowd that seems to dominate so many conversations here.</t>
+  </si>
+  <si>
+    <t>My post is not intended to be a comparison of a libertarian or socialist utopia, or an argument for one or the other. It is simply stating that it is unrealistic to expect people living in our current imperfect system to act the same way and make the same choices as they would if their ideal system existed.</t>
+  </si>
+  <si>
+    <t>&gt;while you can opt out of capitalism and live in a collectivist group\n\nThis isn't opting out of capitalism if you must rely on the larger capitalist society for goods and services. It is a step towards living consistently with your ideals. But regardless of whether you live in a commune or not you will need to buy your car, your phone, your computer, your health insurance, your car insurance, etc in the capitalist economy. So yes you can get close to living in alignment with your ideology if you are a full on socialist but you have to give up almost all modern conveniences to do so.\n\n&gt;Plus many try to live in a self sustained agricultural collective recently.\n\nIt seems many people of all different ideologies are turning to this lifestyle in recent years. I can see why it is attractive \\(self reliance, connection to the land, tangible skills, etc\\). Yet this is only a lifestyle that a limited number of people will be willing or able to commit to in the modern world.\n\n&gt;You are not forced to buy an iPhone\n\nTechnically no, but to be without a cell phone in the modern world is very limiting and afaik there is no socialist phone :\\)\n\nAlso, though not technically 'forced' as I could seek other employment, I have held a number of jobs where a smartphone was a requirement.</t>
+  </si>
+  <si>
+    <t>I would certainly agree with him that it has some major problems, but I think they also do an ok job making sure the food we eat is generally safe and is generally what it says it is.</t>
+  </si>
+  <si>
+    <t>Your version of libertarianism is what I used to think of when I thought about libertarians and it is the interpretation most similar to my own views, but I have come to realize many \\(most?\\) in this sub have a much more radical interpretation of libertarian which borders on, if not fits the description of, anarchism. \n\nLibertarianism to me is about individuals having the most meaningful agency over their lives and choices and as much liberty as possible without infringing on the rights of others or the health and sustainability of the planet, while still being able to pursue socially beneficial goals collectively.\n\nBut it seems that many or most here see the state as serving little purpose other than contract enforcement and enforcement of the NAP, if they even see a role for the state at all. The 'taxation is theft' anti\\-statism crowd so to speak.\n\nI'm glad to see another person with more \\(in my opinion\\) reasonable libertarian views in this sub.</t>
+  </si>
+  <si>
+    <t>Your missing my point, I'm not comparing libertopia and socialtopia. Socialtopia doesn't exist, neither doesn libertopia. We all live in what currently exists which is an imperfect capitalist mixed system. Both you and the socialists could try to opt\\-out of the current system and try to live in perfect harmony with your value systems, but that would be extremely difficult, limiting, and highly impractical. Therefore, it is rather unrealistic to except proponents of either ideological position to be living in perfect harmony with their ideals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't quite understand what 'except' is referring to in your comment. But other than that, I agree, one of the best things about the libertarian perspective is it usually values giving people and groups the freedom to live their lives as they see fit. </t>
+  </si>
+  <si>
+    <t>He has set his own perjury trap by telling some many lies and twisting the story around so much he can't keep it straight. Perjury is only perjury if you perjure yourself. Are you that confident that Trump won't just tell the Truth.\n\n And acting like this investigation is a 'witch hunt' is just dumb. The notoriously professional republican special counsel, was appointed by a Trump administration appointee, to run a very serious investigation into a foreign adversaries verified manipulation of our election and collusion and potential conspiracy between this adversary and the Trump campaign. The investigation has already led to 5 guilty pleas, and 22 total indictments, and has exposed many many lies and inconsistencies in the accounts of Trump and his associates.</t>
+  </si>
+  <si>
+    <t>I think I've seen you driving on public roads paid for through tax dollars, eating food tested for safety by the FDA, and using government global positioning satellites to find your location. Knowingly using stolen property is a crime, I think we are going to have to throw you in lockup, and confiscate any property associated with these crimes.</t>
+  </si>
+  <si>
+    <t>you have as much ability to opt\\-out of taxation as socialists have to opt\\-out of capitalism. \n\nYour libertopia doesn't yet exist, neither does their socialist utopia, both of you have the option of living consistent with your values, but for both of you it would be impractically difficult and limiting.</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.0392857142857</t>
+  </si>
+  <si>
+    <t>0.168506493506</t>
+  </si>
+  <si>
+    <t>0.304464285714</t>
+  </si>
+  <si>
+    <t>0.317824074074</t>
+  </si>
+  <si>
+    <t>0.112066115702</t>
+  </si>
+  <si>
+    <t>0.232272727273</t>
+  </si>
+  <si>
+    <t>0.106878306878</t>
+  </si>
+  <si>
+    <t>0.483163265306</t>
+  </si>
+  <si>
+    <t>0.459714285714</t>
+  </si>
+  <si>
+    <t>0.57671957672</t>
+  </si>
+  <si>
+    <t>0.542592592593</t>
+  </si>
+  <si>
+    <t>0.603636363636</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.547023809524</t>
+  </si>
+  <si>
+    <t>0.0333333333333</t>
+  </si>
+  <si>
+    <t>0.483333333333</t>
+  </si>
+  <si>
+    <t>&gt;calls people autistic \n\n&gt;takes jokes literally \n\nSo what's it like having zero self awareness, OP?</t>
+  </si>
+  <si>
+    <t>&gt;"If you come on my property I'll shoot you myself you little shit stain. "\n\nhttps://www.reddit.com/r/Libertarian/comments/8huhyw/that_still_makes_the_crime_rate_proportionately/dymqw5b?utm_source=reddit-android\n\nGet help, OP\n</t>
+  </si>
+  <si>
+    <t>Get help.</t>
+  </si>
+  <si>
+    <t>Is it hard to type one handed?</t>
+  </si>
+  <si>
+    <t>I don't need to use force. I will walk where I please, and if you try to harm me for any reason I will defend myself. Good luck.</t>
+  </si>
+  <si>
+    <t>&gt; You've stated ad homonyms are your best friend. \n\nLOL!\n\nSo where's your ancap utopia, buddy?</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.19375</t>
+  </si>
+  <si>
+    <t>-0.291666666667</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Of course I can deny it. I have the right to deny whatever the fuck I want. And you have the right to disagree. But just because you disagree doesn't mean I will stop holding or expressing the opinions I stated, just as I don't expect you to. \n\nThey're free to call themselves whatever they want, and I'm free to deny it.\n</t>
+  </si>
+  <si>
+    <t>No, we simply don't accept that it is "freedom" to be threatened with violence from making use of resources just because you unilaterally state they are yours. \n\nThey are only "yours" by virtue of the support of a government. You can not have freedom from a coercive government and still have "yours" other than by agreeing with others how to share resources on a voluntary basis. \n\nAnyone who argues for enforcing property rights other than through negotiation is arguing for the use of force to restrict the liberty of others. Some of that may be justified on the basis that protecting e.g. rights to personal property and a place to live does more to increase liberty than allowing others to freely intrude on it would. A lot of it is not - e.g. there is no country in the world that does not have laws putting limits on private property, because every nation recognises to some extent that unchecked private property rights are detrimental to liberty.\n\nOne of the most common ones would be guarantees on access to the coast line and beaches for example, which most countries have some form of. Another would be requiring planning consent to ensure in part that your use of your properties does not infringe on the liberties of your neighbours or puts the general public at risk.\n\nThe socialist view of property is merely an extension of that - property rights provide many of the most severe infringements on the liberty of the public at the hand of the state. Marx went as far as claiming that the primary purpose of the state was exactly to support the oppression of the working classes by the ruling classes, and the enforcement of property rights is the most stark effect of that.\n</t>
+  </si>
+  <si>
+    <t>Doesn't matter - most crime in places where criminals don't expect it to be a life or death situation does not end in the criminals using violence, but in them *leaving* and being pleased they got away with at most some piece of property before the police arrives. \n\nNo piece of property is worth risking my life over - that's what I'm paying insurance for.\n\nI understand that you might feel like you need to be prepared to use violence in the US because of the risk that a criminal will decide a dead witness is better than a live one, and the risk you might be armed is also a concern to them, but the point is that this situation is part of a circle of escalation that have overall made you less safe with a weapon than people elsewhere are without them.\n\nAs I pointed out elsewhere: the rate of firearms related homicides is 45x as high in the US as in Norway, despite the number of guns per 100 people being around 30 in Norway vs. around 100 in the US - in other words: The difference isn't accounted for by ownership, but by a lack of culture to use them to escalate tense situations, and by regulations and laws to make it beneficial not to.\n\nBut the problem is that once you're first in the situation the US is in, reversing it will be much, much harder,.\n</t>
+  </si>
+  <si>
+    <t>I want whatever drugs you're on. \n\nThere's no point in arguing here - you're clearly either a troll or not lucid.\n</t>
+  </si>
+  <si>
+    <t>&gt; That is beyond ridiculous. It's easier for criminals to commit crimes without guns, so let's keep our society as gun-free as possible. What a joke.\n\nTalk about misinterpreting. I pointed specifically to Norway and Switzerland which are both far from gun free, yet where most home invasions in Norway at least happens by unarmed criminals, so I was very specifically not arguing for a gun free society.\n\nOn the contrary, I very specifically made this point to make it clear that the rate of gun ownership is *irrelevant* to whether or not a problem will have a risk of gun crime being a problem.\n\n&gt; Not to mention it's not true. I don't know about Norway, but there was an epidemic of two types of crimes in Russia.\n\nClearly you missed the other bullet points, which points out that the other aspects that are integral to make this work is a clear distinction in punitive reactions and a reduced chance of meeting an armed response from the police as well.\n\nLet me add one more to that: A functioning police and justice system. \n\nSo I'll agree it won't work to expect criminals to avoid guns in places where the police can't be expected to actually stop crime - in places like Norway, on the rare occasions someone uses a firearm, it results in a manhunt with dozens of specially trained firearms officers. Response and punishment is on a similar level to terrorist attacks. Getting away with using a gun is a rare exception, because the extreme rarity of criminals using guns means large resources can be put in when they do.\n\n&gt; I take it you don't have a wife, a sister, or a daughter. Or are they too ugly to even consider possibility of rape?\n\nThe risk of rape as a result of a home invasion is in most parts of the world so exceedingly low that the risk of harm for everyone if you try to pre-emptively attack an intruder is in most places going to be far higher than if you wait and see what they'll do.\n\nThe risk of rape almost everywhere in the world is far greater from close friends, partners and relatives than from strangers, an only a tiny proportion of most stranger-rapes are from attacks on the street or from intruders as opposed to at parties or similar, so it's a totally messed up idea to even consider pre-emptively attack an intruder over the risk that they may not be there to steal stuff.\n\nCertainly I can't imagine living in a crime-ridden hellhole so bad that this would be a consideration. \n\n&gt; Where exactly is this "pointless escalation"? Do you see mass shootouts happening all over the country on a daily basis?\n\nNorway has about 0.1 homicides with firearms per 100,000 people per year. The US has more than 4.5. That's a 45x higher rate.  The US has about 100 guns per 100 people. Norway has around 30. Vs. the UK with very strict gun ownership at 0.06 homicides and 2.8 guns. Again to point out that the firearms related homicide rates are not very directly tied to levels of gun ownership, or we'd expect to see far higher numbers for Norway.\n\nThe US numbers reflect the pointless escalation I'm referring to: criminals in the US "have to" have guns, because there is little downside - they risk getting shot at by home owners *and* police whether they're armed and not, and sentencing is so strict that there's little point not taking the risk - and the upside is huge: substantially increased chance of survival. So they arm themselves, which substantially increases the incentive for homeowners to be armed, and for police to be trigger happy, which makes it even more essential for criminals to be armed.\n\nSo to reiterate: It's not gun-ownership that is the problem, but a culture that creates a circle of escalating threat, and it increases overall harm to society as a whole. And in case it's not clear: The solution is not to ban gun ownership.\n</t>
+  </si>
+  <si>
+    <t>Only because of the threat of violence from the state.\n</t>
+  </si>
+  <si>
+    <t>This is the classical right-libertarian fallacy: The idea that de jure rights matters more than de facto rights. The right to organise in this way is irrelevant when subjected to capitalist property rights that ensures threats of violence against anyone seeking a fair share of resources. \n\nThis was the key realisation Marx had in his criticism of the "utopian" socialists like Fourier and Owens. As such you "can" opt out, the same way every "can" book a trip to the international space station. In reality this freedom is entirely illusory - most people do not have either choice.\n\n\n</t>
+  </si>
+  <si>
+    <t>0.109821428571</t>
+  </si>
+  <si>
+    <t>0.11486013986</t>
+  </si>
+  <si>
+    <t>0.118903743316</t>
+  </si>
+  <si>
+    <t>0.0956486568987</t>
+  </si>
+  <si>
+    <t>0.135064935065</t>
+  </si>
+  <si>
+    <t>0.659821428571</t>
+  </si>
+  <si>
+    <t>0.501556776557</t>
+  </si>
+  <si>
+    <t>0.397941176471</t>
+  </si>
+  <si>
+    <t>0.383333333333</t>
+  </si>
+  <si>
+    <t>0.562985347985</t>
+  </si>
+  <si>
+    <t>0.516883116883</t>
+  </si>
+  <si>
+    <t>&gt; That's why any domestic violence is a disqualified for buying a gun legally\n\nIn some states.\n\nNot in all of them.</t>
+  </si>
+  <si>
+    <t>&gt; The well regulated milita clause has nullified by the Supreme Court of the United States.\n\nSo if the SCOTUS nullified the right to bear arms, you'd be okay with that?\n\n&gt; Your other points are moot because you lack common sense\n\nGun control in general is based on common sense.\n\nYour entire argument against gun control is based on the idea that common sense doesn't apply because it's outweighed by the second amendment.\n\n&gt; It is imperative that the second amendment be upheld\n\nExcept you already said that you're okay with parts of the second amendment being nullified.\n\n&gt; It's imperative because if we let the government take one freedom, they'll take more\n\nYou mean like taking away the freedom for a 5 year old or a prison inmate to own an AR-15?\n\nThe problem is that your argument has no consistent logic.  You're just changing the rules on the fly to support your argument.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; What about the guns already in circulation?\n\nhttp://fortune.com/2018/02/20/australia-gun-control-success/\n\nAlternatively, you make guns illegal without going out of your way to collect them.  People who know they're likely to get searched or investigated for a separate crime will be incentived to turn those weapons over voluntarily.\n\nIt also gives the police a justification for disarming people who are already known to be armed and who are already recognized as a threat.\n\nFor instance, in many states, lots of domestic abusers end up shooting their victims, because the police have no justification to disarm them before they actually commit a crime. </t>
+  </si>
+  <si>
+    <t>&gt; When a felon commits a crime he forefits his rights. \n\nYou claimed that the 2nd amendment can't be infringed or regulated, despite the fact that it includes "well regulated" in the text.\n\nIf that's what you believe, then it should also apply to inmates.\n\n&gt; I've seen five year old children shoot ARs before, with close adult supervision, should they be able to carry them? No, that's just common sense.\n\nIrrelevant.  The 2nd amendment says no infringement, regardless of "common sense."\n\n&gt; That's not infringement. DC vs. Heller does not nullify the entire amendment\n\nNeither does gun control.  Because gun control is consistent with the "well regulated" excerpt.\n\nBut according to you, the only part that counts is "shall not be infringed."  Which should therefore apply to 5 year olds and inmates.  Because applying the gun control to 5 year olds and inmates is an infringement.</t>
+  </si>
+  <si>
+    <t>&gt; My point is that how are we going to confiscate or ban all the fucking guns that are in this country when people love them so much\n\nThe NRA's base is older and dying out, which means that gun manufacturers have to stoke fear and paranoia to bleed more blood from those turnips.\n\nAll you have to do is let the old generation die out, and make it harder for the young generation buy guns to shoot up their schools with.</t>
+  </si>
+  <si>
+    <t>&gt; also countries with a fuck ton less guns\n\nYeah, funny how that worked out.</t>
+  </si>
+  <si>
+    <t>&gt; DC vs. Heller nullfies the clause regarding well-regulated militias\n\nThen it also nullifies the 2nd amendment, because that's the wording that the second amendment includes.\n\nDo you believe that 5 year old children should be allowed to carry an AR-15?\n\nWhat about prisoners in prison?\n\nIf you believe that 2nd amendment rights can't be abridged, then why shouldn't it apply to children and inmates?</t>
+  </si>
+  <si>
+    <t>Then answer my question:  Should 5 year olds be allowed to carry AR-15s to defend themselves?\n\nMen in prison get raped all the time.  I think this is wrong.  Does that mean that men in prison should be allowed to carry an AR-15 to defend themselves from rape?\n\nKeep in mind that the second amendment doesn't list any restrictions based on age, or based on conviction.</t>
+  </si>
+  <si>
+    <t>&gt; second amendment is already being infringed\n\nThe second amendment literally includes the words "Well-regulated"\n\nWhy do you hate the second amendment?</t>
+  </si>
+  <si>
+    <t>&gt; Thats not my point at all man, my point is that people's lives could have easily been saved by simply brandishing a gun\n\nYeah, I'm sure that Philando Castile would still be alive if he decided to brandish a gun rather than having it securely tucked away.\n\n&gt; and other horrific things could have been prevented if the **right person** had a gun\n\nYou're using the phrase "right person" in order to play a no true scotsman.  So if I point to people with guns who couldn't save the day, or if I point to people who didn't have guns but did save the day, you'll simply insist that they weren't "the right person."\n\nWe look at gun control laws in other countries, and they work.\n\nWe look at lack of gun control in the US, and it doesn't work.\n\nBut I guess all we need to do is find "the right person."</t>
+  </si>
+  <si>
+    <t>0.104067460317</t>
+  </si>
+  <si>
+    <t>-0.0136363636364</t>
+  </si>
+  <si>
+    <t>0.00740740740741</t>
+  </si>
+  <si>
+    <t>-0.105555555556</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.270833333333</t>
+  </si>
+  <si>
+    <t>0.0822278911565</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.448511904762</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.454545454545</t>
+  </si>
+  <si>
+    <t>0.448148148148</t>
+  </si>
+  <si>
+    <t>0.555555555556</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.569954648526</t>
+  </si>
+  <si>
+    <t>This will satisfy me until the next dose of justice</t>
+  </si>
+  <si>
+    <t>Oh I am well aware but they have a shallow bench as it is, last thing they need is recognizable names being destroyed because they are cokehead rapist psychopaths\n</t>
+  </si>
+  <si>
+    <t>LOOKS SHOPPED. Also he is a fucking scumbag, we don't want him</t>
+  </si>
+  <si>
+    <t>Video needs more curbstomping</t>
+  </si>
+  <si>
+    <t>STAY ON MY PLANTATION YOU BROWN WHORE SLAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patience! </t>
+  </si>
+  <si>
+    <t>0.0416666666667</t>
+  </si>
+  <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>0.266666666667</t>
+  </si>
+  <si>
+    <t>Sorry for your loss.</t>
+  </si>
+  <si>
+    <t>Not only is this racist, it's ALSO sexist.\n\nBeautiful!</t>
+  </si>
+  <si>
+    <t>For reference, Sam Bee was a fawning worshipper of Schneiderperson and also heavy pusher of Planned Parenthood.</t>
+  </si>
+  <si>
+    <t>Skinwalkers. They're real.</t>
+  </si>
+  <si>
+    <t>Would loop that JIF again</t>
+  </si>
+  <si>
+    <t>It's the most intense story of the year so far. Cucks are utterly defenseless - I mean for crying out loud, he told his Indian girlfriend to call him his master while he beat the shit out of her!\n\n#SELL YOUR SALT!</t>
+  </si>
+  <si>
+    <t>They have medical records from doctors that saw them.\n\nHe's fucked.\n\nThe REAL question is - WHY NOW? During the past 6-8 years, what changed to make these women come forward?</t>
+  </si>
+  <si>
+    <t>#What ELSE did he do?</t>
+  </si>
+  <si>
+    <t>It begins.</t>
+  </si>
+  <si>
+    <t>Top Kek</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-0.040625</t>
+  </si>
+  <si>
+    <t>-0.1625</t>
+  </si>
+  <si>
+    <t>0.7734375</t>
+  </si>
+  <si>
+    <t>0.3125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actually, no. Let her sit with the consequences of her foolish chatter. Consider the boomerang that knocked Joy Reid off her glorified pedestal. The internet neither forgets nor forgives. </t>
+  </si>
+  <si>
+    <t>The struggle of the Left to rationalize its positions is an intolerable, Sisyphean burden.\n\n\n David Mamet, The Secret Knowledge: On the Dismantling of American Culture\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"History consists, for the greater part, of the miseries brought upon the world by pride, ambition, avarice, revenge, lust, sedition, hypocrisy, ungoverned zeal, and all the train of disorderly appetite."\n\n\nEdmund Burke </t>
+  </si>
+  <si>
+    <t>It has been the political career of this man to begin with hypocrisy, proceed with arrogance, and finish with contempt.\n\n\nThomas Paine\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n"The devil loves nothing better than the intolerance of reformers."\n\n\nJames Russell Lowell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There is no single advantage a woman of truly enduring fascination can possess that is so splendid as speaking with a foreign accent, whatever her origin."\n\n\nCarole Nelson Douglas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There is a time to deliberate... and a time to act. Learn to recognize which is which, and act accordingly."\n\n \nDouglas Merrill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The most critical thing in a negotiation is to get inside your opponent's head and figure out what he really wants."\n\n\nJacob Lew </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When the enemy enthusiastically embraces you, and the fellow countrymen bitterly reject you, it is hard not to wonder if you are, in fact, a traitor.\n\n\nUrsula K. Le Guin\n</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.248015873016</t>
+  </si>
+  <si>
+    <t>0.233333333333</t>
+  </si>
+  <si>
+    <t>-0.195833333333</t>
+  </si>
+  <si>
+    <t>0.446428571429</t>
+  </si>
+  <si>
+    <t>0.466666666667</t>
+  </si>
+  <si>
+    <t>0.520833333333</t>
+  </si>
+  <si>
+    <t>Be ready for 2020 !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yep easy win for Manchin. </t>
+  </si>
+  <si>
+    <t>We want to win. Not recklessly and loudly run into the L.</t>
+  </si>
+  <si>
+    <t>Thx so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He lost statewide elections before and Trump knew he is a shit candidate. I mean it's really easy... Follow the leader, Trump, and win. </t>
+  </si>
+  <si>
+    <t>Don't be a loser moron</t>
+  </si>
+  <si>
+    <t>He was very low energy. Not maga</t>
+  </si>
+  <si>
+    <t>Moore was controversial before and lost statewide elections cause of that. Trump warned us before the fake news came out.  \nMoore never had broad support in AL.</t>
+  </si>
+  <si>
+    <t>Yes, people have to be nimble navigators. Trump didn't just win thx to die hard Trump supporters but also thanks to "moderates" and Cruz, Rubio and other cuckservatives.. \nThese people stayed home in AL.  \nWe are able to win primaries on our own but need **broad** support in general elections..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs and wants! </t>
+  </si>
+  <si>
+    <t>0.616666666667</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.180208333333</t>
+  </si>
+  <si>
+    <t>-0.8</t>
+  </si>
+  <si>
+    <t>0.0375</t>
+  </si>
+  <si>
+    <t>0.288425925926</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.680208333333</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.754166666667</t>
+  </si>
+  <si>
+    <t>0.483796296296</t>
+  </si>
+  <si>
+    <t>That he IS innocent, or that he's FOUND innocent?  Coz one of those bets I'll take.</t>
+  </si>
+  <si>
+    <t>Little late to the party.  He was supposed to be investigating the NXIVM back in 2012, and he slow rolled/dismissed the cases back then.  That's when he became a member.</t>
+  </si>
+  <si>
+    <t>I watched this way more times than I probably should've.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man, when that twunt was up in his face like that, invading his personal space because she/he/it/shit thought they were invulnerable with their masked buddies around, I was just thinking, "Jesus, how is he not just blasting a hole in that smarmy shit eater?"  \n\nLast five seconds of the video were *entirely* satisfying.  </t>
+  </si>
+  <si>
+    <t>Not possible.  There's only 10 active users on T_D.</t>
+  </si>
+  <si>
+    <t>Exactly.  Has she ever claimed any sort of victimization?  What's the crime that's even accused here?  Why the fuck is she even on the news?  Oh.  That's right.  Coz anti-Trump.  Nothing more.</t>
+  </si>
+  <si>
+    <t>Or full of people who took a piss in their own back yard and had shitty neighbors.</t>
+  </si>
+  <si>
+    <t>He didn't dump her because of the car accident.  Their marriage fell apart because he couldn't stop fucking other women.  Something he has very much in common with Democrats.</t>
+  </si>
+  <si>
+    <t>&gt; Donna Hylton\n\n&gt; In 2016 it was announced that Rosario Dawson was attached to a movie version of Hylton's life story titled A Little Piece of Light. The film is in development, in search of a screenwriter and director.\n\nI just instantly lost 100% of my respect for Rosario Dawson.</t>
+  </si>
+  <si>
+    <t>AskThe_Donald is a good place to start getting some answers.</t>
+  </si>
+  <si>
+    <t>-0.1575</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.158928571429</t>
+  </si>
+  <si>
+    <t>0.316666666667</t>
+  </si>
+  <si>
+    <t>-0.2125</t>
+  </si>
+  <si>
+    <t>0.0708333333333</t>
+  </si>
+  <si>
+    <t>0.866666666667</t>
+  </si>
+  <si>
+    <t>0.471428571429</t>
+  </si>
+  <si>
+    <t>0.516666666667</t>
+  </si>
+  <si>
+    <t>0.4375</t>
+  </si>
+  <si>
+    <t>0.622222222222</t>
+  </si>
+  <si>
+    <t>\nAs a reminder, this subreddit [is for civil discussion.](/r/politics/wiki/index#wiki_be_civil)\n\nIn general, be courteous to others. Attack ideas, not users. Personal insults, shill or troll accusations, hate speech, and other incivility violations can result in a permanent ban. \n\nIf you see comments in violation of our rules, please report them.\n\n***\n\n\n*I am a bot, and this action was performed automatically. Please [contact the moderators of this subreddit](/message/compose/?to=/r/politics) if you have any questions or concerns.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is showing love for him or his integrity? He has none and should be in jail. </t>
+  </si>
+  <si>
+    <t>Literally, as in figuratively /s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yup. Bad apples will spoil the bunch, so chuck them out. He should have the book thrown at him to make him an example to others that would abuse their power. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username. I wonder if you give Trumps accusers the same fair hearing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The accusations are credible. Will some use it for political gain? Undoubtedly, but that doesnt make this untrue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get your facts straight: it wasnt Schneiderman who passed on Weinstein, but Cyrus Vance (aka the man who gave Jared and Ivana a pass). Schneiderman was the one who was pressing civil suits against Weinstein. Yes, he is a hypocritical piece of shit, but you are factually incorrect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;\tI just mean generally speaking. If there is a leader fighting for a just cause that will save millions, is it worth it destroying that person over say some decade long allegations that cannot be proven, is that justice worth it in terms of the bigger picture of what will be lost.\n\nMovements need not rely on a single leader. This is why we build institutions with teams and institutional memory. Others can do the work and, hopefully, do it honorably.\n\nAlso, we are not destroying that person; they are destroying themselves. Individuals must be accountable for their actions.\n\nAs MLK put it injustice anywhere is a threat to justice everywhere. The individual cases matter as well in the balance of justice. The ends dont justify the means. \n\n&gt;\tit is always worth it to find justice even if its unwanted or so long in the past.\n\nUnwanted by whom? These four women (and possibly others) deserve justice and want justice.\n\n&gt;\tAs liberals we need to be able to balance this out and look for what is the optimum level of injustice necessary to exist to ensure that overall long term structural injustice is reduced.\n\nI cant take this seriously. The optimal level of justice is full justice. There are different ways of defining what that means, but I cant imagine a scenario where it is better to let corruption go unchecked so that one hypocritical man can do his work. Overall, long term structural injustice will take the work of many to overcome. In this case, the overall structural injustice faced by women cannot be overcome when the man charged with doing that is the epitome of that injustice. </t>
+  </si>
+  <si>
+    <t>Shitty people come in all political stripes. What matters is how the group reacts when their misdeeds come to light.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amen. It *could* happen, but it is far less likely to happen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah. Dude looked like a promising figure and he turned out to be a fucking piece of shit. Good riddance. </t>
+  </si>
+  <si>
+    <t>-0.7</t>
+  </si>
+  <si>
+    <t>0.0725977891156</t>
+  </si>
+  <si>
+    <t>-0.0222222222222</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.666666666667</t>
+  </si>
+  <si>
+    <t>0.5125</t>
+  </si>
+  <si>
+    <t>0.385480442177</t>
+  </si>
+  <si>
+    <t>0.688888888889</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>Learn how journalism works.</t>
+  </si>
+  <si>
+    <t>I heard whining about it helps. Also, learn how journalism works.</t>
+  </si>
+  <si>
+    <t>Most people on reddit are liberal, whining about it is pointless.</t>
+  </si>
+  <si>
+    <t>Damn /u/ScratchTrackProds just got rekt.</t>
+  </si>
+  <si>
+    <t>It's called journalism.</t>
+  </si>
+  <si>
+    <t>Except everything you said is a load of bullshit.</t>
+  </si>
+  <si>
+    <t>"Downvotes mean I'm right!"</t>
+  </si>
+  <si>
+    <t>Extremism is awesome.</t>
+  </si>
+  <si>
+    <t>We don't care if conservatives think we are losing the moral high ground, they've proved that's irrelevant.</t>
+  </si>
+  <si>
+    <t>You are oddly obsessed with upvotes.</t>
+  </si>
+  <si>
+    <t>0.0223214285714</t>
+  </si>
+  <si>
+    <t>-0.113333333333</t>
+  </si>
+  <si>
+    <t>0.611607142857</t>
+  </si>
+  <si>
+    <t>0.596666666667</t>
+  </si>
+  <si>
+    <t>We need to repeat this over and over because if we let the GOP get away with their talking points, all they'll hear is "more democrats have stepped down to misconduct than Republicans because Democrats have more misconduct".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the evidence was really thin there.  </t>
+  </si>
+  <si>
+    <t>Unfortunately, it worked.  Naked hypocrisy is not punished in our culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadly, I think there's also a considerable amount of political acumen.  They know they can do this and to the 65 million republicans and the 100 million or so politically disengaged, they'll see, "Yeah, Democrats are just as bad."  </t>
+  </si>
+  <si>
+    <t>The problem is it will work.  A sizable chunk of the electorate will just see the headline "Democrat..... misconduct" and go, "See, Giant Douche or Turd Sandwich, I'm not going to vote."</t>
+  </si>
+  <si>
+    <t>"Personal responsibility" is a Republican newspeak roughly translating to, "The poor deserve to be poor, and deserve no government help."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes it's hard.  Hypothetically, if Trump's policy (what little of it we can discern because he contradicts himself every 10 minutes) aligned with mine, I still wouldn't vote for him because he's simply not qualified to be president.  The character of our president is more important than the policy.  So had Trump, or someone like him, won the Democratic primary, and the GOP put up someone like Kaisich or Romney, I'd have voted Republican, despite how much I detest their policy.  </t>
+  </si>
+  <si>
+    <t>He's referring to the people who could have voted against Trump but didn't.  With their non-vote, each and every person who stayed home, left the ballot blank, or voted third party, effectively said, "I'm okay with Trump winning."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yup, several never Trump republicans I know love how much liberals hate him, therefore he's obviously doing something right.  </t>
+  </si>
+  <si>
+    <t>0.281481481481</t>
+  </si>
+  <si>
+    <t>-0.4</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>-0.225</t>
+  </si>
+  <si>
+    <t>0.145833333333</t>
+  </si>
+  <si>
+    <t>0.0309523809524</t>
+  </si>
+  <si>
+    <t>0.42962962963</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.463333333333</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.514115646259</t>
+  </si>
+  <si>
+    <t>0.341666666667</t>
+  </si>
+  <si>
+    <t>0.455952380952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trumps people have the life span of a spinal tap drummer </t>
+  </si>
+  <si>
+    <t>Says pussy grabber</t>
+  </si>
+  <si>
+    <t>Yes, it is confirmed. GOP is a racist, bigoted organization committed to corporatized America to death.</t>
+  </si>
+  <si>
+    <t>The party obsessed with gotcha journalism, engages in gotcha? Losers</t>
+  </si>
+  <si>
+    <t>A flat copy. Wow, sad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Guard was criticized by gun control advocates as murder insurance.-lol </t>
+  </si>
+  <si>
+    <t>Trump needs martial law to stop elections. So he wants war with Iran.</t>
+  </si>
+  <si>
+    <t>Even as scandal succeeds scandal, this ignorant, undignified and uncouth president escapes the consequences of legitimate criticism-wow</t>
+  </si>
+  <si>
+    <t>People feel this way when you shoot them, blow up their shit.</t>
+  </si>
+  <si>
+    <t>Holds a executive, legislative branches. Whines courts are bad, DOJ is bad, cia is bad. Trump: the buck stops everywhere else</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>-0.141666666667</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.708333333333</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,15 +1429,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -344,19 +1736,2330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N4" t="s">
+        <v>284</v>
+      </c>
+      <c r="O4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" t="s">
+        <v>276</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" t="s">
+        <v>278</v>
+      </c>
+      <c r="N7" t="s">
+        <v>286</v>
+      </c>
+      <c r="O7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" t="s">
+        <v>279</v>
+      </c>
+      <c r="N8" t="s">
+        <v>287</v>
+      </c>
+      <c r="O8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9" t="s">
+        <v>273</v>
+      </c>
+      <c r="M9" t="s">
+        <v>280</v>
+      </c>
+      <c r="N9" t="s">
+        <v>288</v>
+      </c>
+      <c r="O9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N10" t="s">
+        <v>289</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" t="s">
+        <v>282</v>
+      </c>
+      <c r="N11" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+      <c r="M12" t="s">
+        <v>283</v>
+      </c>
+      <c r="N12" t="s">
+        <v>290</v>
+      </c>
+      <c r="O12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" t="s">
+        <v>350</v>
+      </c>
+      <c r="L4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N4" t="s">
+        <v>371</v>
+      </c>
+      <c r="O4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" t="s">
+        <v>363</v>
+      </c>
+      <c r="N5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" t="s">
+        <v>364</v>
+      </c>
+      <c r="N6" t="s">
+        <v>372</v>
+      </c>
+      <c r="O6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M7" t="s">
+        <v>365</v>
+      </c>
+      <c r="N7" t="s">
+        <v>205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" t="s">
+        <v>353</v>
+      </c>
+      <c r="L8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N8" t="s">
+        <v>373</v>
+      </c>
+      <c r="O8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" t="s">
+        <v>337</v>
+      </c>
+      <c r="J9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>358</v>
+      </c>
+      <c r="M9" t="s">
+        <v>367</v>
+      </c>
+      <c r="N9" t="s">
+        <v>374</v>
+      </c>
+      <c r="O9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" t="s">
+        <v>354</v>
+      </c>
+      <c r="L10" t="s">
+        <v>359</v>
+      </c>
+      <c r="M10" t="s">
+        <v>368</v>
+      </c>
+      <c r="N10" t="s">
+        <v>375</v>
+      </c>
+      <c r="O10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" t="s">
+        <v>335</v>
+      </c>
+      <c r="I11" t="s">
+        <v>338</v>
+      </c>
+      <c r="J11" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" t="s">
+        <v>360</v>
+      </c>
+      <c r="M11" t="s">
+        <v>369</v>
+      </c>
+      <c r="N11" t="s">
+        <v>376</v>
+      </c>
+      <c r="O11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" t="s">
+        <v>339</v>
+      </c>
+      <c r="J12" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" t="s">
+        <v>356</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s">
+        <v>370</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K3" t="s">
+        <v>425</v>
+      </c>
+      <c r="L3" t="s">
+        <v>431</v>
+      </c>
+      <c r="M3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" t="s">
+        <v>426</v>
+      </c>
+      <c r="L4" t="s">
+        <v>432</v>
+      </c>
+      <c r="M4" t="s">
+        <v>439</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>418</v>
+      </c>
+      <c r="K5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" t="s">
+        <v>440</v>
+      </c>
+      <c r="N5" t="s">
+        <v>333</v>
+      </c>
+      <c r="O5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K6" t="s">
+        <v>427</v>
+      </c>
+      <c r="L6" t="s">
+        <v>433</v>
+      </c>
+      <c r="M6" t="s">
+        <v>441</v>
+      </c>
+      <c r="N6" t="s">
+        <v>448</v>
+      </c>
+      <c r="O6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N7" t="s">
+        <v>449</v>
+      </c>
+      <c r="O7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>407</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" t="s">
+        <v>428</v>
+      </c>
+      <c r="L8" t="s">
+        <v>434</v>
+      </c>
+      <c r="M8" t="s">
+        <v>443</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" t="s">
+        <v>408</v>
+      </c>
+      <c r="H9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J9" t="s">
+        <v>422</v>
+      </c>
+      <c r="K9" t="s">
+        <v>429</v>
+      </c>
+      <c r="L9" t="s">
+        <v>435</v>
+      </c>
+      <c r="M9" t="s">
+        <v>444</v>
+      </c>
+      <c r="N9" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" t="s">
+        <v>436</v>
+      </c>
+      <c r="M10" t="s">
+        <v>445</v>
+      </c>
+      <c r="N10" t="s">
+        <v>450</v>
+      </c>
+      <c r="O10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>410</v>
+      </c>
+      <c r="H11" t="s">
+        <v>413</v>
+      </c>
+      <c r="I11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11" t="s">
+        <v>430</v>
+      </c>
+      <c r="L11" t="s">
+        <v>437</v>
+      </c>
+      <c r="M11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N11" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" t="s">
+        <v>255</v>
+      </c>
+      <c r="M12" t="s">
+        <v>447</v>
+      </c>
+      <c r="N12" t="s">
+        <v>393</v>
+      </c>
+      <c r="O12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>